--- a/output/Transitions Rule/summary_tables/transition_rule_summary_tables_Linde-Whiting.xlsx
+++ b/output/Transitions Rule/summary_tables/transition_rule_summary_tables_Linde-Whiting.xlsx
@@ -599,22 +599,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F9" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -622,22 +622,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="C10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.3</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.4</v>
-      </c>
       <c r="E10" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="F10" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="G10" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -843,22 +843,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>8.3</v>
       </c>
       <c r="C9" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="10">
@@ -866,22 +866,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="C10" t="n">
-        <v>0.058</v>
+        <v>0.063</v>
       </c>
       <c r="D10" t="n">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.048</v>
+        <v>0.011</v>
       </c>
       <c r="G10" t="n">
-        <v>0.046</v>
+        <v>0.023</v>
       </c>
     </row>
   </sheetData>
